--- a/Example_data/Input/Training_data/Tag_GPS_locations_all.xlsx
+++ b/Example_data/Input/Training_data/Tag_GPS_locations_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\ml4rt\Example_data\Input\Training_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A763ACF-51CF-4962-9F88-A2297BF5E472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD2E802-CCF1-48BF-A0CD-C29C37745147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3267647-5F14-4534-9C24-294E6B63FC4E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{A3267647-5F14-4534-9C24-294E6B63FC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,15 +421,15 @@
   <dimension ref="A1:F591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>125</v>
       </c>
@@ -469,7 +469,7 @@
         <v>-21.932803</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>126</v>
       </c>
@@ -489,7 +489,7 @@
         <v>-21.934926999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>111</v>
       </c>
@@ -509,7 +509,7 @@
         <v>-21.937491000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>127</v>
       </c>
@@ -529,7 +529,7 @@
         <v>-21.944232</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>87</v>
       </c>
@@ -549,7 +549,7 @@
         <v>-21.920126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>87</v>
       </c>
@@ -569,7 +569,7 @@
         <v>-21.920421999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>101</v>
       </c>
@@ -589,7 +589,7 @@
         <v>-22.011675</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>101</v>
       </c>
@@ -609,7 +609,7 @@
         <v>-22.010857000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>101</v>
       </c>
@@ -629,7 +629,7 @@
         <v>-22.010767999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>75</v>
       </c>
@@ -649,7 +649,7 @@
         <v>-22.011675</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>75</v>
       </c>
@@ -669,7 +669,7 @@
         <v>-22.010857000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>75</v>
       </c>
@@ -689,7 +689,7 @@
         <v>-22.010767999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>75</v>
       </c>
@@ -709,7 +709,7 @@
         <v>-22.010073999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>97</v>
       </c>
@@ -729,7 +729,7 @@
         <v>-22.013445999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>97</v>
       </c>
@@ -749,7 +749,7 @@
         <v>-22.013439999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>98</v>
       </c>
@@ -769,7 +769,7 @@
         <v>-22.013445999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>98</v>
       </c>
@@ -789,7 +789,7 @@
         <v>-22.013439999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>74</v>
       </c>
@@ -809,7 +809,7 @@
         <v>-22.013445999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>74</v>
       </c>
@@ -829,7 +829,7 @@
         <v>-22.013439999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>100</v>
       </c>
@@ -849,7 +849,7 @@
         <v>-22.013445999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>100</v>
       </c>
@@ -869,7 +869,7 @@
         <v>-22.013439999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>98</v>
       </c>
@@ -889,7 +889,7 @@
         <v>-22.016379000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>100</v>
       </c>
@@ -909,7 +909,7 @@
         <v>-22.016379000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>92</v>
       </c>
@@ -929,7 +929,7 @@
         <v>-22.144673000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>95</v>
       </c>
@@ -949,7 +949,7 @@
         <v>-22.144673000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>92</v>
       </c>
@@ -969,7 +969,7 @@
         <v>-22.146567999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>92</v>
       </c>
@@ -989,7 +989,7 @@
         <v>-22.144376999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>93</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>-22.144687999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>94</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>-22.144687999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>95</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>-22.144687999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>63</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>-21.919806999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>84</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>-22.016331999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>64</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>-22.016515999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>83</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>-22.137741999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>84</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>-22.136983000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>84</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>-22.137733000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>84</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>-22.138548</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>84</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>-22.140170999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>84</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>-22.141939000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>84</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>-22.143822</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>84</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>-22.143377999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>84</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>-22.142478000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>84</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>-22.141438000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>84</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>-22.140552</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>84</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>-22.139641000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>84</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>-22.138767000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>84</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>-22.137998</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>84</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>-22.137186</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>84</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>-22.136296999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>84</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>-22.136036000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>85</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>-21.920190000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>69</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>-21.920203000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>70</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>-22.015186</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>70</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>-22.016673000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>70</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>-21.918991999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>70</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>-21.919478999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>70</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>-21.94971</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>70</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>-21.949748</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>70</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>-21.950527000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>70</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>-21.951024</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>70</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>-21.951294000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>70</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>-21.951146000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>70</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>-21.951516000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>70</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>-21.950616</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>70</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>-21.95016</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>70</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>-21.949572</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>70</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>-21.949549999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>70</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>-21.948703999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>-21.948688000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>-21.947776000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>-21.947714999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>70</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>-21.947779000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>70</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>-21.948744000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>8</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>-21.945903999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>8</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>-21.945800999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>8</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>-21.945937000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>8</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>-21.945927000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>8</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>-21.945947</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>8</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>-21.945981</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>-21.946095</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>8</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>-21.945226999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>-21.945187000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>8</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>-21.945155</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>-21.945188000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>8</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>-21.945146999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>-21.945174999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>8</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>-21.945910999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>-21.945129000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>8</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>-21.944239</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>8</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>-21.946888000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>8</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>-21.947687999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>8</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>-21.948497</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>8</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>-21.948848000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>8</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>-21.949138000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>8</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>-21.949401999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>8</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>-21.949691000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>8</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>-21.948596999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>8</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>-21.948785000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>8</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>-21.949321000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>8</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>-21.949529999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>8</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>-21.948812</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>8</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>-21.948658000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>8</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>-21.948321</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>8</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>-21.947338999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>8</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>-21.946940000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>8</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>-21.947766999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>8</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>-21.946967999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>8</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>-21.946946000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>8</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>-21.947023999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>8</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>-21.946911</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>8</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>-21.950099999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>8</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>-21.950415</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>8</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>-21.951274999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>8</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>-21.950908999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>8</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>-21.950499000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>8</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>-21.949871999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>70</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>-21.951625</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>70</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>-21.951557000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>70</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>-21.951454999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>70</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>-21.950354999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>70</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>-21.950489000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>70</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>-21.926265000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>70</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>-21.925916999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>70</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>-21.925332000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>70</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>-21.924412</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>70</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>-21.923439999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>8</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>-21.920047</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>8</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>-21.919722</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>8</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>-21.919573</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>8</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>-21.920134999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>8</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>-21.919885000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>8</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>-21.919712000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>8</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>-21.920385</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>8</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-21.921046</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>8</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>-21.921526</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>8</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>-21.921980999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>8</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>-21.922294999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>8</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>-21.922712000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>8</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>-21.921927</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>8</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>-21.920494999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>8</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>-21.919777</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>8</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>-21.919501</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>8</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>-22.015136999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>8</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>-22.013826999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>8</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>-22.012796999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>8</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>-22.015996999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>8</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>-22.013622000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>8</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>-22.014524000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>8</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>-22.015675999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>8</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>-21.949379</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>8</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>-21.950289999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>8</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>-21.951217</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>8</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>-21.951591000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>8</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>-21.951889000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>8</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>-21.952282</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>8</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>-21.952006000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>8</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>-21.950854</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>8</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>-21.950108</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>8</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>-21.948878000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>8</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>-21.947949999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>8</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>-21.946736000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>8</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>-21.945627000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>8</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>-21.944607000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>8</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>-21.943957000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>8</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>-21.944168999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>8</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>-21.945056999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>8</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>-21.945699999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>8</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>-21.946629000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>8</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>-21.947657</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>8</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>-21.948504</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>8</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>-21.922125000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>8</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>-21.922919</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>8</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>-21.923884999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>8</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>-21.921154000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>8</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>-21.919436000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>8</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>-21.918503000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>8</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>-21.91835</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>8</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>-21.915834</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>8</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>-21.914950000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>8</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>-21.913782999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>-21.920307999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>-21.920565</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>-21.943719000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>70</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>-21.945785000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>70</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>-21.945796000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>70</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>-21.946712000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>70</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>-21.946679</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>70</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>-21.947458999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>70</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>-21.947485</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>70</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>-21.948225999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>70</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>-21.948135000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>70</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>-21.948763</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>70</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>-21.948924000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>70</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>-21.949083999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>70</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>-21.948287000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>70</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>-22.015730000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>70</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>-21.919407</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>70</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>-21.918645000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>70</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>-21.917914</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>70</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>-21.917372</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>70</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>-21.917255000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>70</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>-21.917331000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>70</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>-21.917878000000002</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>70</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>-21.918883999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>70</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>-21.919989000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>70</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>-21.920707</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>70</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>-21.921339</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>70</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>-21.921454000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>70</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>-21.921448000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>70</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>-21.921116000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>70</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>-21.920573999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>70</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>-22.135829999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>70</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>-22.137253000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>70</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>-22.138131000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>70</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>-22.138665</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>70</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>-22.139042</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>70</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>-22.138831</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>70</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>-22.139137999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>70</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>-22.139344000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>70</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>-22.138504000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>70</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>-22.137892000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>70</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>-22.137127</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>70</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>-22.136741000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>70</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>-22.136151999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>70</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>-22.135266000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>70</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>-22.137174000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>70</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>-21.945903999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>70</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>-21.945800999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>70</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>-21.945937000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>70</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>-21.945927000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>70</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>-21.945947</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>70</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>-21.945981</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>70</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>-21.946095</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>70</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>-21.945226999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>70</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>-21.945187000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>70</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>-21.945155</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>70</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>-21.945188000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>70</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>-21.945146999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>70</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>-21.945129000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>70</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>-21.944239</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>70</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>-21.946888000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>70</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>-21.947687999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>70</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>-21.948497</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>70</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>-21.948848000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>70</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>-21.949138000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>70</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>-21.949401999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>70</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>-21.949691000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>70</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>-21.948596999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>70</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>-21.948785000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>70</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>-21.949321000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>70</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>-21.949529999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>70</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>-21.920047</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>70</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>-21.919722</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>70</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>-21.919573</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>70</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>-21.920134999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>70</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>-21.919885000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>70</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>-21.919712000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>70</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>-21.920385</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>70</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>-21.921046</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>70</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>-21.921526</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>70</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>-21.921980999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>70</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>-21.922294999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>70</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>-21.922712000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>70</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>-21.921927</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>70</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>-21.920494999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>70</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>-21.919777</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>70</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>-21.919501</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>70</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>-22.015136999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>70</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>-22.013826999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>70</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>-22.012796999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>70</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>-22.015996999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>70</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>-22.013622000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>70</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>-22.014524000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>70</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>-22.015675999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>70</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>-21.949379</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>70</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>-21.950289999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>70</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>-21.951217</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>70</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>-21.951591000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>70</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>-21.951889000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>70</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>-21.952282</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>70</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>-21.952006000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>70</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>-21.950854</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>70</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>-21.950108</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>70</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>-21.948878000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>70</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>-21.947949999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>70</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>-21.946736000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>70</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>-21.945627000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>70</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>-21.944607000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>70</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>-21.943957000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>70</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>-21.944168999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>70</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>-21.945056999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>70</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>-21.945699999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>70</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>-21.946629000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>70</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>-21.947657</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>70</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>-21.948504</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>70</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>-21.922125000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>70</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>-21.922919</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>70</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>-21.923884999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>70</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>-21.921154000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>70</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>-21.919436000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>70</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>-21.918503000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>70</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>-21.91835</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>70</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>-21.915834</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>70</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>-21.914950000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>70</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>-21.913782999999999</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>70</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>-21.920307999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>70</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>-21.920565</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>60</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>-21.919945999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>60</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>-21.919968000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>60</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>-21.919709999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>60</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>-21.919832</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>49</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>-22.016525999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>49</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>-22.016361</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>52</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>-22.016636999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>52</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>-22.016575</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>52</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>-22.016400999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>55</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>-21.919947000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>48</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>-21.920377999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>50</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>-22.016576000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>51</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>-22.016576000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>51</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>-22.016525999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>51</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>-22.016525999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>51</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>-22.016400999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>51</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>-22.016400999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>50</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>-21.919945999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>50</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>-21.919945999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>50</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>-21.919968000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>50</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>-21.919968000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>50</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>-21.919709999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>50</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>-21.919709999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>51</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>-21.919832</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>50</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>-21.919832</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>50</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>-21.919947000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>50</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>-21.919947000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>50</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>-21.920377999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>50</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>-21.920377999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>112</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>-21.936586999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>114</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>-22.014886000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>114</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>-22.014078000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>114</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>-22.013400000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>114</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>-22.012737000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>114</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>-22.012681000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>114</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>-22.012912</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>114</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>-22.013601000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>114</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>-22.014389999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>120</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>-21.949961999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>120</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>-21.946383999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>120</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>-21.946249999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>117</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>-21.91498</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>118</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>-21.914973</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>118</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>-21.914940999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>115</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>-21.914636999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>159</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>-21.911764000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>159</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>-21.912278000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>159</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>-21.911919000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>159</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>-21.912213999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>159</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>-21.912306000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>159</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>-21.911570000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>159</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>-21.910868000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>159</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>-21.910475999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>157</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>-21.917459999999998</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>168</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>-21.921195000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>168</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>-21.921897999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>168</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>-21.921908999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>168</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>-21.922263999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>168</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>-21.922125999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>168</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>-21.922243000000002</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>168</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>-21.922737999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>168</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>-21.921792</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>168</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>-21.922021000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>168</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>-21.922115000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>168</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>-21.922087000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>168</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>-21.921084</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>168</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>-21.920418999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>168</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>-21.919871000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>168</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>-21.919806999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>168</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>-21.919919</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>168</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>-21.920214999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>164</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>-21.920196000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>158</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>-21.929493000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>164</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>-21.933209999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>169</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>-21.945622</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>169</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>-21.945640000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>169</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>-21.945810999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>164</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>-21.934070999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>169</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>-21.949967999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>169</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>-21.945992</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>169</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>-21.945703999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>169</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>-21.945782000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>176</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>-22.013836000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>186</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>-21.914952</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>183</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>-21.923746000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>183</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>-21.924168999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>183</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>-21.924175999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>183</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>-21.91947</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>183</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>-21.9192</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>183</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>-21.918683000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>183</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>-21.918683000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>185</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>-21.918683000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>185</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>-21.918512</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>183</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>-21.918301</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>183</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>-21.917936999999998</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>183</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>-21.915023000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>183</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>-21.913276</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>183</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>-21.914809000000002</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>183</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>-21.91507</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>220</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>-21.91507</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>183</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>-21.915053</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>186</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>-21.918724000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>183</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>-21.912856000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>190</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>-22.010290000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>190</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>-22.010104999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>190</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>-22.013887</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>190</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>-22.014078000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>190</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>-22.014133000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>190</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>-22.013179999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>190</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>-22.013069000000002</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>190</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>-22.014672999999998</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>190</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>-22.015678999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>190</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>-22.015428</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>190</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>-22.015274000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>190</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>-22.015312999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>190</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>-22.013904</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>190</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>-22.013712999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>190</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>-22.014225</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>190</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>-22.013926000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>190</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>-22.014323000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>190</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>-22.015637999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>190</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>-22.015677</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>190</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>-22.015606999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>190</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>-22.015944999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>190</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>-22.015944000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>190</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>-22.016061000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>190</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>-22.016061000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>190</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>-22.016646999999999</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>219</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>-21.936565000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>223</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>-21.936679999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>220</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>-21.939945000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>222</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>-21.936699999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>222</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>-21.936753</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>222</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>-21.935093999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>190</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>-22.013926000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>186</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>-21.911280000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>186</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>-21.910602999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>186</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>-21.910769999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>186</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>-21.910131</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>193</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>-21.944372999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>193</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>-21.944158999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>193</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>-21.944728000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>193</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>-21.944811000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>188</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>-21.914770000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>188</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>-21.914266999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>188</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>-21.915099999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>216</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>-21.914677000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>209</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>-22.020060999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>209</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>-22.021612000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>210</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>-22.021612000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>209</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>-22.021460000000001</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>210</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>-22.021460000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>209</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>-22.022003000000002</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>210</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>-22.022003000000002</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>209</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>-22.021795000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>210</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>-22.021795000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>209</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>-22.022341999999998</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>210</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>-22.022341999999998</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>209</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>-22.018519999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>204</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>-21.909858</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>204</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>-21.913015999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>203</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>-21.913015999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>204</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>-21.913550000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>204</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>-21.913315000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>204</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>-21.912614000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>202</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>-21.912614000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>204</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>-21.912417999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>202</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>-21.912417999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>204</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>-21.913292999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>202</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>-21.913292999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>204</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>-21.914968999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>204</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>-21.912058999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>203</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>-21.908622999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>206</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>-21.908622999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>211</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>-21.936765999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>211</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>-21.930686000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>211</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>-21.929746999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>211</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>-21.929924</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>202</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>-21.914317</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>202</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>-21.914961999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>202</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>-21.914985999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>202</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>-21.914961000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>202</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>-21.914807</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>202</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>-21.915002999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>202</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>-21.914912000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>202</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>-21.906489000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>202</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>-21.906704000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>202</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>-21.914044000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>206</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>-21.909255000000002</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>192</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>-21.934775999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>192</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>-21.934367999999999</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>192</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>-21.933413999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>192</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>-21.937211999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>192</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>-21.938808000000002</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>192</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>-21.938310999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>192</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>-21.937206</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>192</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>-21.938153</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>192</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>-21.937718</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>192</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>-21.937726000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>192</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>-21.936116999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>208</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>-21.936064999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>209</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>-22.015028999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>209</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>-22.018473</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>209</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>-22.018585000000002</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>209</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>-22.018568999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>209</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>-22.018767</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>209</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>-22.018623999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>209</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>-22.014144999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>209</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>-22.014125</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>209</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>-22.016722999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>209</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>-22.01671</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>209</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>-22.016670000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>191</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>-21.938175999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>192</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>-21.938175999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>191</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>-21.938185000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>192</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>-21.938185000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>191</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>-21.938905999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>192</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>-21.938905999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>191</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>-21.938893</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>192</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>-21.938893</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>191</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>-21.938901999999999</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>192</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>-21.938901999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>191</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>-21.937449000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>192</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>-21.937449000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>191</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>-21.937988000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>192</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>-21.937988000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>191</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>-21.937985999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>191</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>-21.938129</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>191</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>-21.939198999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>192</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>-21.939198999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>211</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>-21.939198999999999</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>191</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>-21.939478999999999</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>192</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>-21.939478999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>191</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>-21.939360000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>192</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>-21.939360000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>211</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>-21.939360000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>191</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>-21.938856000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>192</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>-21.938856000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>211</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>-21.938856000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>208</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>-21.938856000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>191</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>-21.93957</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>208</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>-21.93957</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>192</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>-21.93957</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>191</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>-21.939271000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>191</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>-21.939471000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>211</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>-21.939433000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>191</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>-21.93947</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>191</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>-21.939696000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>211</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>-21.939696000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>208</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>-21.939696000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>191</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>-21.939634000000002</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>211</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>-21.939634000000002</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>208</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>-21.939634000000002</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>191</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>-21.938099000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>191</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>-21.938123000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>191</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>-21.938224000000002</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>192</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>-21.939257000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>192</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>-21.938317999999999</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>192</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>-21.937548</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>192</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>-21.93796</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>219</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>-21.939406000000002</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>192</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>-21.939048</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>191</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>-21.939314</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>208</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>-21.939377</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>208</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>-21.939427999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>298</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>-21.939485999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>208</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>-21.939736</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>208</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>-21.939784</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>214</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>-21.919041</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>202</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>-21.919429999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>214</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>-21.920451</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>192</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>-21.936892</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>211</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>-21.936824999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>211</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>-21.936859999999999</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>192</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>-21.936865000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>192</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>-21.939437000000002</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>211</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>-21.939429000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>211</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>-21.938262999999999</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>192</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>-21.938303999999999</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>192</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>-21.938164</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>211</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>-21.938165000000001</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>211</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>-21.937073000000002</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>192</v>
       </c>
